--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>篇目</t>
+  </si>
+  <si>
+    <t>第一听力时间</t>
+  </si>
+  <si>
+    <t>复习1</t>
+  </si>
+  <si>
+    <t>复习2</t>
+  </si>
+  <si>
+    <t>复习3</t>
+  </si>
   <si>
     <t>2-L4</t>
   </si>
@@ -66,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,13 +97,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +110,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -110,6 +133,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -117,19 +148,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,6 +187,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -157,15 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,54 +233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,61 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,121 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +460,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -456,21 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,26 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,150 +530,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -997,87 +1012,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9.13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,7 +96,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,49 +117,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,7 +180,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -188,52 +219,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,49 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,127 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +445,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,51 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -539,153 +530,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1048,9 +1048,15 @@
         <v>9.13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3">
+        <v>9.16</v>
+      </c>
+      <c r="C3">
+        <v>9.17</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,9 +96,124 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,21 +226,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,106 +234,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +248,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,145 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,23 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +466,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,6 +495,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,31 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,148 +544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1059,9 +1059,12 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4">
+        <v>9.18</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,29 +96,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,22 +145,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +156,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,22 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -187,23 +195,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,23 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,25 +254,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,151 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +442,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,15 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,6 +522,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -509,183 +539,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1059,12 +1059,15 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>9.18</v>
+      </c>
+      <c r="C4">
+        <v>9.2</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>篇目</t>
   </si>
@@ -40,10 +40,16 @@
     <t>13-L4</t>
   </si>
   <si>
+    <t>9.20</t>
+  </si>
+  <si>
     <t>18-L1</t>
   </si>
   <si>
     <t>19-L2</t>
+  </si>
+  <si>
+    <t>9.21</t>
   </si>
   <si>
     <t>21-L1</t>
@@ -81,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -121,6 +134,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +153,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -142,7 +178,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,84 +222,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +260,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,25 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,37 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,67 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +448,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +471,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +505,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -496,46 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,153 +550,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,28 +1024,29 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1044,7 +1054,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>9.13</v>
       </c>
     </row>
@@ -1052,10 +1062,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>9.16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9.17</v>
       </c>
     </row>
@@ -1063,71 +1073,77 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>9.18</v>
       </c>
-      <c r="C4">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,36 +109,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +130,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -160,40 +200,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,45 +240,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,15 +453,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +477,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +522,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -530,165 +545,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20440" windowHeight="11400"/>
+    <workbookView windowWidth="20440" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="天文" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,14 +109,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,9 +130,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +179,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,32 +224,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,51 +244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -254,13 +254,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,67 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,97 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +466,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,28 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,165 +545,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>篇目</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>21-L1</t>
+  </si>
+  <si>
+    <t>9.28</t>
   </si>
   <si>
     <t>22-L2</t>
@@ -87,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -102,21 +105,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,117 +242,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,43 +263,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,133 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,73 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +479,72 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +553,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1096,54 +1099,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tpo/listening/听力篇目.xlsx
+++ b/tpo/listening/听力篇目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>篇目</t>
   </si>
@@ -64,7 +64,13 @@
     <t>24-L4</t>
   </si>
   <si>
+    <t>10.14</t>
+  </si>
+  <si>
     <t>26-L3</t>
+  </si>
+  <si>
+    <t>10.19</t>
   </si>
   <si>
     <t>30-L3</t>
@@ -92,8 +98,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,12 +111,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -119,10 +147,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,6 +163,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -142,28 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -172,55 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,13 +263,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,25 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,43 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,91 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,39 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,10 +474,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,6 +495,47 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,168 +554,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +1033,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1112,44 +1118,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
